--- a/model/model_notes.xlsx
+++ b/model/model_notes.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="24980" yWindow="1920" windowWidth="24900" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25420" yWindow="1120" windowWidth="24900" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="no collective" sheetId="1" r:id="rId1"/>
     <sheet name="w collective" sheetId="2" r:id="rId2"/>
+    <sheet name="the model" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="63">
   <si>
     <t>amb</t>
   </si>
@@ -195,6 +196,21 @@
   <si>
     <t>same as 3.9</t>
   </si>
+  <si>
+    <t>T/F?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 4 5 </t>
+  </si>
+  <si>
+    <t>everything flat</t>
+  </si>
+  <si>
+    <t>all states flat</t>
+  </si>
+  <si>
+    <t>all but no</t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +258,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -396,15 +412,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="197">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -481,6 +542,28 @@
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -557,6 +640,28 @@
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3229,8 +3334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD28" sqref="AD28"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7228,4 +7333,934 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="M11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/model/model_notes.xlsx
+++ b/model/model_notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25420" yWindow="1120" windowWidth="24900" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="25360" yWindow="1120" windowWidth="24900" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="no collective" sheetId="1" r:id="rId1"/>
@@ -209,14 +209,14 @@
     <t>all states flat</t>
   </si>
   <si>
-    <t>all but no</t>
+    <t>no noise is flat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,6 +236,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7340,7 +7346,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8255,6 +8261,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/model/model_notes.xlsx
+++ b/model/model_notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25360" yWindow="1120" windowWidth="24900" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView minimized="1" xWindow="25520" yWindow="4480" windowWidth="25020" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="no collective" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="66">
   <si>
     <t>amb</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>no noise is flat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 4 5 </t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>p(coll)</t>
   </si>
 </sst>
 </file>
@@ -7343,10 +7352,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7367,7 +7376,7 @@
     <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -7410,8 +7419,11 @@
       <c r="N1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7452,7 +7464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7493,7 +7505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7534,7 +7546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7575,7 +7587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7616,7 +7628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7657,7 +7669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7698,7 +7710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7739,7 +7751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7780,7 +7792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7821,7 +7833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7862,7 +7874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7903,7 +7915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7944,7 +7956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7985,7 +7997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8258,6 +8270,41 @@
       </c>
       <c r="N22" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
